--- a/WebsterWebApp/wwwroot/uploadform.xlsx
+++ b/WebsterWebApp/wwwroot/uploadform.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97fc40832d7799a9/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fpt\Sem 3\Project\project\WebsterWebApp\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBB5EE55-AFD0-4383-8809-652AA13E225F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCA9F6D-3577-460A-BC3C-D405688C8B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF40B206-22B1-4723-9073-E4994E4F9CD4}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Form</t>
   </si>
@@ -74,14 +74,100 @@
   </si>
   <si>
     <t>Is CorrectAnswer</t>
+  </si>
+  <si>
+    <t>YesNo</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Default question, including 4 answers</t>
+  </si>
+  <si>
+    <t>The question has only 2 answers yes or no</t>
+  </si>
+  <si>
+    <t>General Knowledge</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>Questions with a common theme</t>
+  </si>
+  <si>
+    <t>Math topic question</t>
+  </si>
+  <si>
+    <t>Technology topic questions</t>
+  </si>
+  <si>
+    <t>QuestionHasOneAnswer</t>
+  </si>
+  <si>
+    <t>QuestionHasManyAnswer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Answer </t>
+  </si>
+  <si>
+    <t>Many Answers</t>
+  </si>
+  <si>
+    <t>firstAnswer</t>
+  </si>
+  <si>
+    <t>secondAnswer</t>
+  </si>
+  <si>
+    <t>thirdAnswer</t>
+  </si>
+  <si>
+    <t>fourthAnswer</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>The first answer is correct</t>
+  </si>
+  <si>
+    <t>The second answer is correct</t>
+  </si>
+  <si>
+    <t>The third answer is correct</t>
+  </si>
+  <si>
+    <t>The four answer is correct</t>
+  </si>
+  <si>
+    <t>The yes answer is correct</t>
+  </si>
+  <si>
+    <t>The no answer is correct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -103,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -111,16 +197,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -136,7 +294,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -432,19 +590,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E307907A-9F72-4085-B77D-81D0C1048FE2}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
     <col min="6" max="6" width="21.88671875" customWidth="1"/>
     <col min="7" max="7" width="23.21875" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" customWidth="1"/>
@@ -500,7 +658,133 @@
         <v>13</v>
       </c>
     </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="D21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="G21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A26:B26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WebsterWebApp/wwwroot/uploadform.xlsx
+++ b/WebsterWebApp/wwwroot/uploadform.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fpt\Sem 3\Project\project\WebsterWebApp\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97fc40832d7799a9/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCA9F6D-3577-460A-BC3C-D405688C8B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBB5EE55-AFD0-4383-8809-652AA13E225F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF40B206-22B1-4723-9073-E4994E4F9CD4}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Form</t>
   </si>
@@ -74,100 +74,14 @@
   </si>
   <si>
     <t>Is CorrectAnswer</t>
-  </si>
-  <si>
-    <t>YesNo</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Default question, including 4 answers</t>
-  </si>
-  <si>
-    <t>The question has only 2 answers yes or no</t>
-  </si>
-  <si>
-    <t>General Knowledge</t>
-  </si>
-  <si>
-    <t>Mathematics</t>
-  </si>
-  <si>
-    <t>Technical</t>
-  </si>
-  <si>
-    <t>Questions with a common theme</t>
-  </si>
-  <si>
-    <t>Math topic question</t>
-  </si>
-  <si>
-    <t>Technology topic questions</t>
-  </si>
-  <si>
-    <t>QuestionHasOneAnswer</t>
-  </si>
-  <si>
-    <t>QuestionHasManyAnswer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One Answer </t>
-  </si>
-  <si>
-    <t>Many Answers</t>
-  </si>
-  <si>
-    <t>firstAnswer</t>
-  </si>
-  <si>
-    <t>secondAnswer</t>
-  </si>
-  <si>
-    <t>thirdAnswer</t>
-  </si>
-  <si>
-    <t>fourthAnswer</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>The first answer is correct</t>
-  </si>
-  <si>
-    <t>The second answer is correct</t>
-  </si>
-  <si>
-    <t>The third answer is correct</t>
-  </si>
-  <si>
-    <t>The four answer is correct</t>
-  </si>
-  <si>
-    <t>The yes answer is correct</t>
-  </si>
-  <si>
-    <t>The no answer is correct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -189,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -197,88 +111,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -294,7 +136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -590,19 +432,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E307907A-9F72-4085-B77D-81D0C1048FE2}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="36.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
     <col min="6" max="6" width="21.88671875" customWidth="1"/>
     <col min="7" max="7" width="23.21875" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" customWidth="1"/>
@@ -658,133 +500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="D21" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="G21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A26:B26"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>